--- a/BuffetWorkingGroup/TestCase1b/fandm-setup.xlsx
+++ b/BuffetWorkingGroup/TestCase1b/fandm-setup.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwpomero/crm/hs/dpw-8/github/DPW8-Plotting/BuffetWorkingGroup/TestCase1b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60322884-DA93-4140-826B-AFE6F7F46F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF9933E-2054-2544-9002-63F5DFF5AF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="860" windowWidth="37780" windowHeight="19440" xr2:uid="{EF8968BA-7CDB-2C41-AF7E-5BD1621428BB}"/>
+    <workbookView xWindow="12300" yWindow="5800" windowWidth="23920" windowHeight="14000" xr2:uid="{EF8968BA-7CDB-2C41-AF7E-5BD1621428BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$68</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="145">
   <si>
     <t>002.01</t>
   </si>
@@ -468,6 +471,9 @@
   </si>
   <si>
     <t>Standard</t>
+  </si>
+  <si>
+    <t>F&amp;M String</t>
   </si>
 </sst>
 </file>
@@ -915,15 +921,15 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="33.5" style="4" customWidth="1"/>
@@ -942,6 +948,9 @@
       <c r="C1" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
@@ -1802,9 +1811,9 @@
       <c r="C29" s="4">
         <v>360</v>
       </c>
-      <c r="D29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">   -360</v>
+      <c r="D29" s="4">
+        <f>C29</f>
+        <v>360</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>74</v>
@@ -1835,9 +1844,9 @@
       <c r="C30" s="4">
         <v>361</v>
       </c>
-      <c r="D30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">   -361</v>
+      <c r="D30" s="4">
+        <f>C30</f>
+        <v>361</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>95</v>
@@ -2963,6 +2972,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N68" xr:uid="{EAAFC31F-0382-344A-890D-6EB0F99DBB1B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A69:C1048576 N69:XFD1048576 A2:C53 R55:XFD68 O1:XFD53 E45 A1 A54:A68 E69:F1048576" numberStoredAsText="1"/>

--- a/BuffetWorkingGroup/TestCase1b/fandm-setup.xlsx
+++ b/BuffetWorkingGroup/TestCase1b/fandm-setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwpomero/crm/hs/dpw-8/github/DPW8-Plotting/BuffetWorkingGroup/TestCase1b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B9284A-2C27-DB42-A1CC-EFDB2CA3C1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5419680-2DE4-C048-AD69-7C816BAED904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="36040" windowHeight="15620" xr2:uid="{EF8968BA-7CDB-2C41-AF7E-5BD1621428BB}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -569,25 +569,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -930,8 +918,8 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1875,219 +1863,219 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:14" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>362</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="4">
         <v>377</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>362-377</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N31" s="6" t="s">
+      <c r="E31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:14" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="4">
         <v>378</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="4">
         <v>393</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>378-393</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
+      <c r="E32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="4">
         <v>394</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="4">
         <v>408</v>
       </c>
       <c r="D33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>394-408</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" s="10" t="s">
+      <c r="E33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:14" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="4">
         <v>409</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="4">
         <v>427</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>409-427</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N34" s="12" t="s">
+      <c r="E34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:14" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>428</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>443</v>
       </c>
       <c r="D35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>428-443</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="N35" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:14" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="4">
         <v>444</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="4">
         <v>459</v>
       </c>
       <c r="D36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>444-459</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="E36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
+      <c r="N36" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="4">
         <v>460</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="4">
         <v>475</v>
       </c>
       <c r="D37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>460-475</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:14" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="4">
         <v>476</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="4">
         <v>494</v>
       </c>
       <c r="D38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>476-494</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="12" t="s">
+      <c r="E38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N38" s="12" t="s">
+      <c r="N38" s="8" t="s">
         <v>112</v>
       </c>
     </row>

--- a/BuffetWorkingGroup/TestCase1b/fandm-setup.xlsx
+++ b/BuffetWorkingGroup/TestCase1b/fandm-setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwpomero/crm/hs/dpw-8/github/DPW8-Plotting/BuffetWorkingGroup/TestCase1b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5419680-2DE4-C048-AD69-7C816BAED904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1039130-E0BA-3146-8C5C-C2E73DDC02F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="36040" windowHeight="15620" xr2:uid="{EF8968BA-7CDB-2C41-AF7E-5BD1621428BB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="148">
   <si>
     <t>002.01</t>
   </si>
@@ -918,8 +918,8 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2267,6 +2267,9 @@
         <f t="shared" si="0"/>
         <v>578-593</v>
       </c>
+      <c r="E45" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F45" s="4" t="s">
         <v>110</v>
       </c>
@@ -3037,7 +3040,7 @@
   <autoFilter ref="A1:N68" xr:uid="{EAAFC31F-0382-344A-890D-6EB0F99DBB1B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A71:C1048576 N71:XFD1048576 A2:C40 R55:XFD68 O1:XFD53 E45 A1 A54:A68 E71:F1048576 O69:XFD69 O70:XFD70 A42:C48 A41:B41 A50:C53 A49:B49" numberStoredAsText="1"/>
+    <ignoredError sqref="A71:C1048576 N71:XFD1048576 A2:C40 R55:XFD68 O1:XFD53 A1 A54:A68 E71:F1048576 O69:XFD69 O70:XFD70 A42:C48 A41:B41 A50:C53 A49:B49" numberStoredAsText="1"/>
     <ignoredError sqref="D54" formula="1"/>
   </ignoredErrors>
 </worksheet>
